--- a/Input/業務マニュアル.xlsx
+++ b/Input/業務マニュアル.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,30 +470,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>議事録作成</t>
+          <t>スライド作成</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>会議後24時間以内に初版を作成して、先輩にレビューしてもらう。
-3日以内にクライアントに送付。</t>
+          <t>フッターにHigh Confidentialを掲載</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>議事録作成</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>会議後24時間以内に初版を作成して、先輩にレビューしてもらう。
+3日以内にクライアントに送付。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>構成は以下の通り。
 ・会議名
@@ -508,16 +523,16 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>議事録は「だ・である」調で作成。</t>
         </is>

--- a/Input/業務マニュアル.xlsx
+++ b/Input/業務マニュアル.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,30 +485,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>スライド作成</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>全体の構成がわかりにくいときはパンくずリストを右上に設置する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>会議後24時間以内に初版を作成して、先輩にレビューしてもらう。
 3日以内にクライアントに送付。</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>構成は以下の通り。
 ・会議名
@@ -523,16 +538,16 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>議事録は「だ・である」調で作成。</t>
         </is>
